--- a/biology/Zoologie/Bombus_ecuadorius/Bombus_ecuadorius.xlsx
+++ b/biology/Zoologie/Bombus_ecuadorius/Bombus_ecuadorius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bombus ecuadorius est une espèce de bourdons que l'on trouve en Équateur, au Pérou et en Bolivie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bombus ecuadorius est une espèce de bourdons que l'on trouve en Équateur, au Pérou et en Bolivie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bombus ecuadorius a été décrite en 1890 par Fernand Meunier (d) (1868-1926), entomologiste et paléontologue belge[2] sur la base d'un spécimen femelle capturée dans les environs de Quito à 2 000 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bombus ecuadorius a été décrite en 1890 par Fernand Meunier (d) (1868-1926), entomologiste et paléontologue belge sur la base d'un spécimen femelle capturée dans les environs de Quito à 2 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Bombus ecuadorius, une femelle[2], mesure 23 mm. Sa coloration générale est noire mais le dessous de son abdomen est brun pâle[2]. Ses ailes sont entièrement fauve doré à reflets métalliques[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Bombus ecuadorius, une femelle, mesure 23 mm. Sa coloration générale est noire mais le dessous de son abdomen est brun pâle. Ses ailes sont entièrement fauve doré à reflets métalliques. 
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fernand Meunier, « Description d'une espèce nouvelle "ou peu connue" de Bombus d'Ecuador », Jornal de Ciências Matemáticas, Físicas e Naturais, vol. 2, nos 5-8,‎ juillet 1890, p. 66 (lire en ligne)</t>
         </is>
